--- a/R/Reports/missing_count.xlsx
+++ b/R/Reports/missing_count.xlsx
@@ -478,7 +478,7 @@
         <v>32518</v>
       </c>
       <c r="D2" t="n">
-        <v>32518</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>32518</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>32518</v>
+        <v>32519</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>

--- a/R/Reports/missing_count.xlsx
+++ b/R/Reports/missing_count.xlsx
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>32519</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
